--- a/Proyecto RISCV/Instrucciones/Control_Unit.xlsx
+++ b/Proyecto RISCV/Instrucciones/Control_Unit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\2022\I_Semestre_2022_semipresencial\Microprocesadores_y_Microcontroladores\Evaluaciones\Proyectos\Proyecto RISCV\Instrucciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nador\Desktop\RISCV\Proyecto RISCV\Instrucciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E934C92-F011-4E3F-8AC3-D213D9FD9508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CF57FA-E951-48B1-A068-073F57526847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5475" yWindow="5805" windowWidth="15300" windowHeight="8325" xr2:uid="{86A48E26-F327-4EB6-89F6-4A7C5D4D33BE}"/>
+    <workbookView xWindow="2076" yWindow="972" windowWidth="18876" windowHeight="11184" xr2:uid="{86A48E26-F327-4EB6-89F6-4A7C5D4D33BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -888,6 +888,93 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,24 +1029,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,80 +1036,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1057,7 +1057,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1355,32 +1355,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA29F1A3-E384-4B00-829D-01A4F2B3AA1F}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN22" sqref="AN22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:AG28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
-    <col min="14" max="17" width="4.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="4.140625" customWidth="1"/>
-    <col min="22" max="26" width="4.28515625" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" customWidth="1"/>
-    <col min="28" max="29" width="4.28515625" customWidth="1"/>
-    <col min="30" max="31" width="4.140625" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" customWidth="1"/>
-    <col min="34" max="34" width="4.140625" style="7" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" customWidth="1"/>
-    <col min="41" max="41" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
+    <col min="3" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" customWidth="1"/>
+    <col min="14" max="17" width="4.33203125" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" customWidth="1"/>
+    <col min="19" max="20" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" customWidth="1"/>
+    <col min="22" max="26" width="4.33203125" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" customWidth="1"/>
+    <col min="28" max="29" width="4.33203125" customWidth="1"/>
+    <col min="30" max="31" width="4.109375" customWidth="1"/>
+    <col min="32" max="32" width="4.33203125" customWidth="1"/>
+    <col min="33" max="33" width="4.109375" customWidth="1"/>
+    <col min="34" max="34" width="4.109375" style="7" customWidth="1"/>
+    <col min="35" max="35" width="10.5546875" customWidth="1"/>
+    <col min="41" max="41" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="16">
         <v>31</v>
@@ -1505,54 +1505,54 @@
       </c>
       <c r="AQ1" s="5"/>
     </row>
-    <row r="2" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="105" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="96" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="99" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="100"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="102" t="s">
+      <c r="T2" s="64"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="94" t="s">
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
       <c r="AH2" s="34"/>
       <c r="AI2" s="50"/>
       <c r="AJ2" s="50"/>
@@ -1564,7 +1564,7 @@
       <c r="AP2" s="42"/>
       <c r="AQ2" s="22"/>
     </row>
-    <row r="3" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="AQ3" s="6"/>
     </row>
-    <row r="4" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1736,52 +1736,52 @@
       <c r="AP4" s="39"/>
       <c r="AQ4" s="6"/>
     </row>
-    <row r="5" spans="1:43" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="76" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79" t="s">
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="80"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="58" t="s">
+      <c r="T5" s="85"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61" t="s">
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="63"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="92"/>
       <c r="AH5" s="35"/>
       <c r="AI5" s="53"/>
       <c r="AJ5" s="52"/>
@@ -1793,7 +1793,7 @@
       <c r="AP5" s="39"/>
       <c r="AQ5" s="6"/>
     </row>
-    <row r="6" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="AQ6" s="6"/>
     </row>
-    <row r="7" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="AQ7" s="6"/>
     </row>
-    <row r="8" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>41</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AQ8" s="6"/>
     </row>
-    <row r="9" spans="1:43" s="14" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" s="14" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>31</v>
       </c>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="AQ9" s="6"/>
     </row>
-    <row r="10" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AQ10" s="6"/>
     </row>
-    <row r="11" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>40</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AQ11" s="6"/>
     </row>
-    <row r="12" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="AQ12" s="13"/>
     </row>
-    <row r="13" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="AQ13" s="13"/>
     </row>
-    <row r="14" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="AQ14" s="13"/>
     </row>
-    <row r="15" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="AQ15" s="6"/>
     </row>
-    <row r="16" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>37</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="AQ16" s="13"/>
     </row>
-    <row r="17" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>38</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="AQ17" s="22"/>
     </row>
-    <row r="18" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
       <c r="B18" s="19"/>
       <c r="C18" s="2"/>
@@ -3362,54 +3362,54 @@
       <c r="AP18" s="39"/>
       <c r="AQ18" s="6"/>
     </row>
-    <row r="19" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79" t="s">
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="T19" s="80"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="82" t="s">
+      <c r="T19" s="85"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="61" t="s">
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="63"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
       <c r="AH19" s="37"/>
       <c r="AI19" s="55"/>
       <c r="AJ19" s="52"/>
@@ -3421,7 +3421,7 @@
       <c r="AP19" s="38"/>
       <c r="AQ19" s="22"/>
     </row>
-    <row r="20" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="AQ20" s="6"/>
     </row>
-    <row r="21" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="AQ21" s="6"/>
     </row>
-    <row r="22" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AQ22" s="6"/>
     </row>
-    <row r="23" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="AQ23" s="6"/>
     </row>
-    <row r="24" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AQ24" s="6"/>
     </row>
-    <row r="25" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="AQ25" s="6"/>
     </row>
-    <row r="26" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="AQ26" s="6"/>
     </row>
-    <row r="27" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="AQ27" s="6"/>
     </row>
-    <row r="28" spans="1:43" s="25" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" s="25" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="AQ28" s="13"/>
     </row>
-    <row r="29" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="AQ29" s="6"/>
     </row>
-    <row r="30" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="AQ30" s="6"/>
     </row>
-    <row r="31" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="AQ31" s="6"/>
     </row>
-    <row r="32" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="AQ32" s="6"/>
     </row>
-    <row r="33" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="AQ33" s="6"/>
     </row>
-    <row r="34" spans="1:43" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5244,48 +5244,48 @@
       <c r="AP34" s="39"/>
       <c r="AQ34" s="6"/>
     </row>
-    <row r="35" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="64" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="67" t="s">
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="69"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="98"/>
       <c r="AH35" s="35"/>
       <c r="AI35" s="53"/>
       <c r="AJ35" s="52"/>
@@ -5297,7 +5297,7 @@
       <c r="AP35" s="39"/>
       <c r="AQ35" s="6"/>
     </row>
-    <row r="36" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="AQ36" s="6"/>
     </row>
-    <row r="37" spans="1:43" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="18"/>
       <c r="C37" s="2"/>
@@ -5469,7 +5469,7 @@
       <c r="AP37" s="2"/>
       <c r="AQ37" s="6"/>
     </row>
-    <row r="38" spans="1:43" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" s="45"/>
       <c r="C38" s="6"/>
@@ -5516,16 +5516,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B35:U35"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="AA5:AG5"/>
     <mergeCell ref="V35:Z35"/>
@@ -5536,6 +5526,16 @@
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="AA19:AG19"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B35:U35"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
